--- a/tablaExamenPilotp2011v1.xlsx
+++ b/tablaExamenPilotp2011v1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>A</t>
   </si>
@@ -389,7 +389,7 @@
   <dimension ref="B2:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +435,7 @@
         <v>1.4</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -443,43 +443,64 @@
         <v>1.5</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1.6</v>
       </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1.7</v>
       </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1.8</v>
       </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1.9</v>
       </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1.1100000000000001</v>
       </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1.1200000000000001</v>
       </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -491,9 +512,12 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1.1499999999999999</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/tablaExamenPilotp2011v1.xlsx
+++ b/tablaExamenPilotp2011v1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>A</t>
   </si>
@@ -84,6 +84,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -100,7 +103,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -142,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,7 +180,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,11 +391,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
@@ -506,11 +509,17 @@
       <c r="B15">
         <v>1.1299999999999999</v>
       </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1.1399999999999999</v>
       </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
@@ -522,8 +531,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -534,7 +544,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -546,7 +556,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tablaExamenPilotp2011v1.xlsx
+++ b/tablaExamenPilotp2011v1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>A</t>
   </si>
@@ -37,6 +37,54 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Respuestas</t>
+  </si>
+  <si>
+    <t>A2.1</t>
+  </si>
+  <si>
+    <t>A2.2</t>
+  </si>
+  <si>
+    <t>A2.3</t>
+  </si>
+  <si>
+    <t>A2.4</t>
+  </si>
+  <si>
+    <t>A2.5</t>
+  </si>
+  <si>
+    <t>A2.6</t>
+  </si>
+  <si>
+    <t>A2.7</t>
+  </si>
+  <si>
+    <t>A2.8</t>
+  </si>
+  <si>
+    <t>A2.9</t>
+  </si>
+  <si>
+    <t>A2.10</t>
+  </si>
+  <si>
+    <t>A2.11</t>
+  </si>
+  <si>
+    <t>A2.12</t>
+  </si>
+  <si>
+    <t>A2.13</t>
+  </si>
+  <si>
+    <t>A2.14</t>
+  </si>
+  <si>
+    <t>A2.15</t>
   </si>
 </sst>
 </file>
@@ -91,19 +139,441 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Smiley Face 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="609600"/>
+          <a:ext cx="247650" cy="112395"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Smiley Face 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="952500"/>
+          <a:ext cx="247650" cy="112395"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Smiley Face 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="1143000"/>
+          <a:ext cx="247650" cy="112395"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Smiley Face 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="1333500"/>
+          <a:ext cx="247650" cy="112395"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Smiley Face 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="1524000"/>
+          <a:ext cx="247650" cy="112395"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Smiley Face 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="1524000"/>
+          <a:ext cx="247650" cy="112395"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Smiley Face 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="2286000"/>
+          <a:ext cx="247650" cy="112395"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Smiley Face 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="2286000"/>
+          <a:ext cx="247650" cy="112395"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:C17" totalsRowShown="0">
-  <autoFilter ref="B2:C17"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:D32" totalsRowShown="0">
+  <autoFilter ref="B2:D32"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="A"/>
     <tableColumn id="2" name="Respuesta"/>
+    <tableColumn id="3" name="Respuestas"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -145,7 +615,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -180,7 +650,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,35 +859,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C17"/>
+  <dimension ref="B2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1.1000000000000001</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1.2</v>
       </c>
@@ -425,15 +901,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1.3</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1.4</v>
       </c>
@@ -441,7 +920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1.5</v>
       </c>
@@ -449,15 +928,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1.6</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1.7</v>
       </c>
@@ -465,31 +944,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1.8</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1.9</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1.1100000000000001</v>
       </c>
@@ -497,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1.1200000000000001</v>
       </c>
@@ -505,15 +993,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1.1299999999999999</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1.1399999999999999</v>
       </c>
@@ -521,19 +1012,143 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1.1499999999999999</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -544,7 +1159,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -556,7 +1171,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tablaExamenPilotp2011v1.xlsx
+++ b/tablaExamenPilotp2011v1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
   <si>
     <t>A</t>
   </si>
@@ -120,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,6 +570,17 @@
     <tableColumn id="3" name="Respuestas"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F2:G46" totalsRowShown="0">
+  <autoFilter ref="F2:G46"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="D"/>
+    <tableColumn id="2" name="Respuestas"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -859,19 +871,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D32"/>
+  <dimension ref="B2:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -881,8 +894,14 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1.1000000000000001</v>
       </c>
@@ -892,16 +911,25 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1.2</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1.3</v>
       </c>
@@ -911,40 +939,64 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1.4</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1.5</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1.6</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1.7</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>0.7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1.8</v>
       </c>
@@ -954,8 +1006,14 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0.8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1.9</v>
       </c>
@@ -965,8 +1023,14 @@
       <c r="D11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0.9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -976,24 +1040,36 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1.1100000000000001</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1.1200000000000001</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1.1299999999999999</v>
       </c>
@@ -1003,16 +1079,28 @@
       <c r="D15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0.1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1.1399999999999999</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1.1499999999999999</v>
       </c>
@@ -1022,133 +1110,336 @@
       <c r="D17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0.3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0.4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>0.7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>0.8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>0.9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>0.1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>0.2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>18</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>0.3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>0.4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>20</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>21</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>0.6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
+      </c>
+      <c r="F32">
+        <v>0.7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>0.8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>0.9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>0.1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>0.2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>0.3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>0.4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>0.6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>0.7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>0.8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>0.9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
